--- a/examples/ex121.GLV.xlsx
+++ b/examples/ex121.GLV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B025A93-D1C3-4507-8FAE-49B6428501B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932C665-B830-4E71-8BBB-14DA03B0393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{47E26092-495B-4C72-9A78-A07D49CA9EA5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{47E26092-495B-4C72-9A78-A07D49CA9EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Давление зарядки - температура" sheetId="2" r:id="rId1"/>
@@ -431,7 +431,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{DFC390CF-746E-45D2-B977-F61830318183}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +450,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1920,9 +1920,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1960,7 +1960,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2066,7 +2066,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2220,22 +2220,22 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="14.1328125" style="1" customWidth="1"/>
+    <col min="3" max="12" width="9.1328125" style="1"/>
+    <col min="13" max="13" width="10.86328125" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9.1328125" style="1"/>
     <col min="17" max="17" width="10" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2244,23 +2244,23 @@
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1">[1]!unf_version()</f>
-        <v>7.31</v>
+        <v>7.38</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="str">
         <f t="shared" ref="C7:K7" si="0">$C$8&amp;" = " &amp;C9</f>
         <v>P = 10</v>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>10</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>92.155986324063619</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>13</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>90.979088303119795</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <v>16</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>89.831870902493719</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>19</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>88.713225314321107</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>22</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>87.622097281852916</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>25</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <v>28</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="N16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <v>31</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <v>34</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <v>37</v>
       </c>
@@ -2792,7 +2792,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B20" s="14">
         <v>40</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B21" s="15">
         <v>43</v>
       </c>
@@ -2878,15 +2878,15 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="27">
         <f>N9</f>
         <v>47.346752451349808</v>
@@ -2905,7 +2905,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="30">
         <v>0</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>

--- a/examples/ex121.GLV.xlsx
+++ b/examples/ex121.GLV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932C665-B830-4E71-8BBB-14DA03B0393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEF146-4DD7-4551-9DA3-05CC86AD1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{47E26092-495B-4C72-9A78-A07D49CA9EA5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{47E26092-495B-4C72-9A78-A07D49CA9EA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Давление зарядки - температура" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <xf numFmtId="1" fontId="4" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,7 +431,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{DFC390CF-746E-45D2-B977-F61830318183}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +450,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -654,16 +654,16 @@
                   <c:v>10.200282885950285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.091144375969634</c:v>
+                  <c:v>10.091144375969636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9843166095124776</c:v>
+                  <c:v>9.9843166095124758</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.879726968738904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7773058470665628</c:v>
+                  <c:v>9.777305847066561</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.6769864946866839</c:v>
@@ -672,7 +672,7 @@
                   <c:v>9.5787048734939511</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4823995207676717</c:v>
+                  <c:v>9.4823995207676699</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.3880114209944878</c:v>
@@ -681,7 +681,7 @@
                   <c:v>9.2954838852709223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2047624377679007</c:v>
+                  <c:v>9.2047624377678989</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.1157947087794966</c:v>
@@ -771,10 +771,10 @@
                   <c:v>20.18721502910358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.967794758505978</c:v>
+                  <c:v>19.967794758505981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.753093076195182</c:v>
+                  <c:v>19.753093076195185</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>19.542959392944589</c:v>
@@ -786,7 +786,7 @@
                   <c:v>19.135825038653799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.938553590855616</c:v>
+                  <c:v>18.938553590855619</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.745307987975103</c:v>
@@ -891,28 +891,28 @@
                   <c:v>29.621033954544387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.298682813684255</c:v>
+                  <c:v>29.298682813684259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.983272121118976</c:v>
+                  <c:v>28.983272121118972</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28.674580115044204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.372394381761566</c:v>
+                  <c:v>28.37239438176157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.076511368242588</c:v>
+                  <c:v>28.076511368242592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.786735924877334</c:v>
+                  <c:v>27.786735924877338</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>27.502880876249343</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.224766617952955</c:v>
+                  <c:v>27.224766617952959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,16 +993,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>40.862059411066397</c:v>
+                  <c:v>40.862059411066404</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40.391985479671888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.932603931326938</c:v>
+                  <c:v>39.932603931326931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.483554052265667</c:v>
+                  <c:v>39.483554052265674</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>39.0444911734809</c:v>
@@ -1116,7 +1116,7 @@
                   <c:v>49.913935108622923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.340657830474733</c:v>
+                  <c:v>49.34065783047474</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>48.780399565344069</c:v>
@@ -1128,10 +1128,10 @@
                   <c:v>47.697205510545146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.173450056501494</c:v>
+                  <c:v>47.173450056501487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.661072217924342</c:v>
+                  <c:v>46.66107221792435</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>46.159705241947414</c:v>
@@ -1227,10 +1227,10 @@
                   <c:v>60.613612306758341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.89455078238764</c:v>
+                  <c:v>59.894550782387647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.192349748308104</c:v>
+                  <c:v>59.192349748308111</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>58.506423061532061</c:v>
@@ -1239,10 +1239,10 @@
                   <c:v>57.836211436966984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.181180926504965</c:v>
+                  <c:v>57.181180926504958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.54082150030618</c:v>
+                  <c:v>56.540821500306173</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>55.914645722354066</c:v>
@@ -1251,7 +1251,7 @@
                   <c:v>55.302187513053852</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.703000992272941</c:v>
+                  <c:v>54.703000992272933</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>54.116659396787355</c:v>
@@ -1365,10 +1365,10 @@
                   <c:v>64.415521873954077</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.704535362110271</c:v>
+                  <c:v>63.704535362110278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.009072538931896</c:v>
+                  <c:v>63.009072538931889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,7 +1449,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>81.875883234867445</c:v>
+                  <c:v>81.87588323486743</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80.85211660705211</c:v>
@@ -1464,22 +1464,22 @@
                   <c:v>77.928875515399383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.000876204801628</c:v>
+                  <c:v>77.000876204801642</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>76.094718559179071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75.209640439708068</c:v>
+                  <c:v>75.209640439708053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.344914758444617</c:v>
+                  <c:v>74.344914758444631</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>73.49984748623443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72.673775794958672</c:v>
+                  <c:v>72.673775794958658</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>71.86606632366427</c:v>
@@ -1572,31 +1572,31 @@
                   <c:v>89.831870902493719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88.713225314321107</c:v>
+                  <c:v>88.713225314321122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.622097281852916</c:v>
+                  <c:v>87.622097281852902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.557483785459382</c:v>
+                  <c:v>86.557483785459368</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.518429967325588</c:v>
+                  <c:v>85.518429967325574</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>84.504026275019001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.513405805968759</c:v>
+                  <c:v>83.513405805968773</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>82.545741836560865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>81.600245521047015</c:v>
+                  <c:v>81.600245521047029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>80.676163746805699</c:v>
+                  <c:v>80.676163746805685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,8 +1903,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Info"/>
     </sheetNames>
@@ -1920,9 +1923,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1960,7 +1963,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2066,7 +2069,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2223,19 +2226,19 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="14.1328125" style="1" customWidth="1"/>
-    <col min="3" max="12" width="9.1328125" style="1"/>
-    <col min="13" max="13" width="10.86328125" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.15234375" style="1"/>
+    <col min="2" max="2" width="14.15234375" style="1" customWidth="1"/>
+    <col min="3" max="12" width="9.15234375" style="1"/>
+    <col min="13" max="13" width="10.84375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9.15234375" style="1"/>
     <col min="17" max="17" width="10" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="1"/>
+    <col min="18" max="18" width="9.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2244,23 +2247,23 @@
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1">[1]!unf_version()</f>
-        <v>7.38</v>
+        <v>7.49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="str">
         <f t="shared" ref="C7:K7" si="0">$C$8&amp;" = " &amp;C9</f>
         <v>P = 10</v>
@@ -2307,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>10</v>
       </c>
@@ -2389,7 +2392,7 @@
       </c>
       <c r="F10" s="17">
         <f>[1]!GLV_p_bellow_atma(F$9,$B10)</f>
-        <v>40.862059411066397</v>
+        <v>40.862059411066404</v>
       </c>
       <c r="G10" s="17">
         <f>[1]!GLV_p_bellow_atma(G$9,$B10)</f>
@@ -2405,20 +2408,20 @@
       </c>
       <c r="J10" s="17">
         <f>[1]!GLV_p_bellow_atma(J$9,$B10)</f>
-        <v>81.875883234867445</v>
+        <v>81.87588323486743</v>
       </c>
       <c r="K10" s="18">
         <f>[1]!GLV_p_bellow_atma(K$9,$B10)</f>
         <v>92.155986324063619</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>13</v>
       </c>
       <c r="C11" s="19">
         <f>[1]!GLV_p_bellow_atma(C$9,$B11)</f>
-        <v>10.091144375969634</v>
+        <v>10.091144375969636</v>
       </c>
       <c r="D11" s="20">
         <f>[1]!GLV_p_bellow_atma(D$9,$B11)</f>
@@ -2453,17 +2456,17 @@
         <v>90.979088303119795</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <v>16</v>
       </c>
       <c r="C12" s="19">
         <f>[1]!GLV_p_bellow_atma(C$9,$B12)</f>
-        <v>9.9843166095124776</v>
+        <v>9.9843166095124758</v>
       </c>
       <c r="D12" s="20">
         <f>[1]!GLV_p_bellow_atma(D$9,$B12)</f>
-        <v>19.967794758505978</v>
+        <v>19.967794758505981</v>
       </c>
       <c r="E12" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B12)</f>
@@ -2471,7 +2474,7 @@
       </c>
       <c r="F12" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B12)</f>
-        <v>39.932603931326938</v>
+        <v>39.932603931326931</v>
       </c>
       <c r="G12" s="20">
         <f>[1]!GLV_p_bellow_atma(G$9,$B12)</f>
@@ -2479,7 +2482,7 @@
       </c>
       <c r="H12" s="20">
         <f>[1]!GLV_p_bellow_atma(H$9,$B12)</f>
-        <v>59.89455078238764</v>
+        <v>59.894550782387647</v>
       </c>
       <c r="I12" s="20">
         <f>[1]!GLV_p_bellow_atma(I$9,$B12)</f>
@@ -2494,7 +2497,7 @@
         <v>89.831870902493719</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>19</v>
       </c>
@@ -2504,7 +2507,7 @@
       </c>
       <c r="D13" s="20">
         <f>[1]!GLV_p_bellow_atma(D$9,$B13)</f>
-        <v>19.753093076195182</v>
+        <v>19.753093076195185</v>
       </c>
       <c r="E13" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B13)</f>
@@ -2512,15 +2515,15 @@
       </c>
       <c r="F13" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B13)</f>
-        <v>39.483554052265667</v>
+        <v>39.483554052265674</v>
       </c>
       <c r="G13" s="20">
         <f>[1]!GLV_p_bellow_atma(G$9,$B13)</f>
-        <v>49.340657830474733</v>
+        <v>49.34065783047474</v>
       </c>
       <c r="H13" s="20">
         <f>[1]!GLV_p_bellow_atma(H$9,$B13)</f>
-        <v>59.192349748308104</v>
+        <v>59.192349748308111</v>
       </c>
       <c r="I13" s="20">
         <f>[1]!GLV_p_bellow_atma(I$9,$B13)</f>
@@ -2532,16 +2535,16 @@
       </c>
       <c r="K13" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B13)</f>
-        <v>88.713225314321107</v>
+        <v>88.713225314321122</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>22</v>
       </c>
       <c r="C14" s="19">
         <f>[1]!GLV_p_bellow_atma(C$9,$B14)</f>
-        <v>9.7773058470665628</v>
+        <v>9.777305847066561</v>
       </c>
       <c r="D14" s="20">
         <f>[1]!GLV_p_bellow_atma(D$9,$B14)</f>
@@ -2549,7 +2552,7 @@
       </c>
       <c r="E14" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B14)</f>
-        <v>29.298682813684255</v>
+        <v>29.298682813684259</v>
       </c>
       <c r="F14" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B14)</f>
@@ -2573,10 +2576,10 @@
       </c>
       <c r="K14" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B14)</f>
-        <v>87.622097281852916</v>
+        <v>87.622097281852902</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>25</v>
       </c>
@@ -2590,7 +2593,7 @@
       </c>
       <c r="E15" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B15)</f>
-        <v>28.983272121118976</v>
+        <v>28.983272121118972</v>
       </c>
       <c r="F15" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B15)</f>
@@ -2610,16 +2613,16 @@
       </c>
       <c r="J15" s="20">
         <f>[1]!GLV_p_bellow_atma(J$9,$B15)</f>
-        <v>77.000876204801628</v>
+        <v>77.000876204801642</v>
       </c>
       <c r="K15" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B15)</f>
-        <v>86.557483785459382</v>
+        <v>86.557483785459368</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <v>28</v>
       </c>
@@ -2645,7 +2648,7 @@
       </c>
       <c r="H16" s="20">
         <f>[1]!GLV_p_bellow_atma(H$9,$B16)</f>
-        <v>57.181180926504965</v>
+        <v>57.181180926504958</v>
       </c>
       <c r="I16" s="20">
         <f>[1]!GLV_p_bellow_atma(I$9,$B16)</f>
@@ -2657,27 +2660,27 @@
       </c>
       <c r="K16" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B16)</f>
-        <v>85.518429967325588</v>
+        <v>85.518429967325574</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <v>31</v>
       </c>
       <c r="C17" s="19">
         <f>[1]!GLV_p_bellow_atma(C$9,$B17)</f>
-        <v>9.4823995207676717</v>
+        <v>9.4823995207676699</v>
       </c>
       <c r="D17" s="20">
         <f>[1]!GLV_p_bellow_atma(D$9,$B17)</f>
-        <v>18.938553590855616</v>
+        <v>18.938553590855619</v>
       </c>
       <c r="E17" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B17)</f>
-        <v>28.372394381761566</v>
+        <v>28.37239438176157</v>
       </c>
       <c r="F17" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B17)</f>
@@ -2685,11 +2688,11 @@
       </c>
       <c r="G17" s="20">
         <f>[1]!GLV_p_bellow_atma(G$9,$B17)</f>
-        <v>47.173450056501494</v>
+        <v>47.173450056501487</v>
       </c>
       <c r="H17" s="20">
         <f>[1]!GLV_p_bellow_atma(H$9,$B17)</f>
-        <v>56.54082150030618</v>
+        <v>56.540821500306173</v>
       </c>
       <c r="I17" s="20">
         <f>[1]!GLV_p_bellow_atma(I$9,$B17)</f>
@@ -2697,7 +2700,7 @@
       </c>
       <c r="J17" s="20">
         <f>[1]!GLV_p_bellow_atma(J$9,$B17)</f>
-        <v>75.209640439708068</v>
+        <v>75.209640439708053</v>
       </c>
       <c r="K17" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B17)</f>
@@ -2706,7 +2709,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <v>34</v>
       </c>
@@ -2720,7 +2723,7 @@
       </c>
       <c r="E18" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B18)</f>
-        <v>28.076511368242588</v>
+        <v>28.076511368242592</v>
       </c>
       <c r="F18" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B18)</f>
@@ -2728,7 +2731,7 @@
       </c>
       <c r="G18" s="20">
         <f>[1]!GLV_p_bellow_atma(G$9,$B18)</f>
-        <v>46.661072217924342</v>
+        <v>46.66107221792435</v>
       </c>
       <c r="H18" s="20">
         <f>[1]!GLV_p_bellow_atma(H$9,$B18)</f>
@@ -2740,16 +2743,16 @@
       </c>
       <c r="J18" s="20">
         <f>[1]!GLV_p_bellow_atma(J$9,$B18)</f>
-        <v>74.344914758444617</v>
+        <v>74.344914758444631</v>
       </c>
       <c r="K18" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B18)</f>
-        <v>83.513405805968759</v>
+        <v>83.513405805968773</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <v>37</v>
       </c>
@@ -2763,7 +2766,7 @@
       </c>
       <c r="E19" s="20">
         <f>[1]!GLV_p_bellow_atma(E$9,$B19)</f>
-        <v>27.786735924877334</v>
+        <v>27.786735924877338</v>
       </c>
       <c r="F19" s="20">
         <f>[1]!GLV_p_bellow_atma(F$9,$B19)</f>
@@ -2792,13 +2795,13 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B20" s="14">
         <v>40</v>
       </c>
       <c r="C20" s="19">
         <f>[1]!GLV_p_bellow_atma(C$9,$B20)</f>
-        <v>9.2047624377679007</v>
+        <v>9.2047624377678989</v>
       </c>
       <c r="D20" s="20">
         <f>[1]!GLV_p_bellow_atma(D$9,$B20)</f>
@@ -2818,24 +2821,24 @@
       </c>
       <c r="H20" s="20">
         <f>[1]!GLV_p_bellow_atma(H$9,$B20)</f>
-        <v>54.703000992272941</v>
+        <v>54.703000992272933</v>
       </c>
       <c r="I20" s="20">
         <f>[1]!GLV_p_bellow_atma(I$9,$B20)</f>
-        <v>63.704535362110271</v>
+        <v>63.704535362110278</v>
       </c>
       <c r="J20" s="20">
         <f>[1]!GLV_p_bellow_atma(J$9,$B20)</f>
-        <v>72.673775794958672</v>
+        <v>72.673775794958658</v>
       </c>
       <c r="K20" s="21">
         <f>[1]!GLV_p_bellow_atma(K$9,$B20)</f>
-        <v>81.600245521047015</v>
+        <v>81.600245521047029</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B21" s="15">
         <v>43</v>
       </c>
@@ -2849,7 +2852,7 @@
       </c>
       <c r="E21" s="23">
         <f>[1]!GLV_p_bellow_atma(E$9,$B21)</f>
-        <v>27.224766617952955</v>
+        <v>27.224766617952959</v>
       </c>
       <c r="F21" s="23">
         <f>[1]!GLV_p_bellow_atma(F$9,$B21)</f>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="I21" s="23">
         <f>[1]!GLV_p_bellow_atma(I$9,$B21)</f>
-        <v>63.009072538931896</v>
+        <v>63.009072538931889</v>
       </c>
       <c r="J21" s="23">
         <f>[1]!GLV_p_bellow_atma(J$9,$B21)</f>
@@ -2873,20 +2876,20 @@
       </c>
       <c r="K21" s="24">
         <f>[1]!GLV_p_bellow_atma(K$9,$B21)</f>
-        <v>80.676163746805699</v>
+        <v>80.676163746805685</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <f>N9</f>
         <v>47.346752451349808</v>
@@ -2905,7 +2908,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <v>0</v>
       </c>
@@ -2923,7 +2926,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>

--- a/examples/ex121.GLV.xlsx
+++ b/examples/ex121.GLV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEF146-4DD7-4551-9DA3-05CC86AD1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A17276-CF35-4DE0-8EEF-AAEC5F168DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{47E26092-495B-4C72-9A78-A07D49CA9EA5}"/>
   </bookViews>
@@ -1710,6 +1710,1324 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поправка</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> на давление зарядки сильфона в зависимости от температуры</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>на глубине установки</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Давление зарядки - температура'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T=10 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление зарядки - температура'!$C$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление зарядки - температура'!$C$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10.200282885950285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.411511169882658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.632099074403225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.862059411066404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.101405065183691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.35014895410017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.608304021279778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.87588323486743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.155986324063619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-905F-4537-84F6-63231FA7098F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Давление зарядки - температура'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T=25 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление зарядки - температура'!$C$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление зарядки - температура'!$C$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.6769864946866839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.337249459959271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.983272121118972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.615085788435067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.232721803667317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.836211436966984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.425585872442028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.000876204801642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.557483785459368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-905F-4537-84F6-63231FA7098F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Давление зарядки - температура'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T=43 C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Давление зарядки - температура'!$C$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Давление зарядки - температура'!$C$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.1157947087794966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.188530483003078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.224766617952959</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.224721847370802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.188614022473324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.116659396787355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.009072538931889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.86606632366427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.676163746805685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-905F-4537-84F6-63231FA7098F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176115407"/>
+        <c:axId val="176116367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176115407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление на глубине установки</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> клапана, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176116367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176116367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Давление зарядки сильфона при 15.5 С </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176115407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1899,6 +3217,42 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74221</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>494805</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>118754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C73FEB-3500-131F-2C94-4D28DD3439AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1923,9 +3277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1963,7 +3317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2069,7 +3423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2211,7 +3565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2223,7 +3577,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2247,7 +3601,7 @@
       </c>
       <c r="G1" t="str" cm="1">
         <f t="array" ref="G1">[1]!unf_version()</f>
-        <v>7.49</v>
+        <v>7.50</v>
       </c>
     </row>
     <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2375,6 +3729,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="str">
+        <f>"T="&amp;B10&amp;" C"</f>
+        <v>T=10 C</v>
+      </c>
       <c r="B10" s="14">
         <v>10</v>
       </c>
@@ -2416,6 +3774,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="str">
+        <f t="shared" ref="A11:A21" si="1">"T="&amp;B11&amp;" C"</f>
+        <v>T=13 C</v>
+      </c>
       <c r="B11" s="14">
         <v>13</v>
       </c>
@@ -2457,6 +3819,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=16 C</v>
+      </c>
       <c r="B12" s="14">
         <v>16</v>
       </c>
@@ -2498,6 +3864,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=19 C</v>
+      </c>
       <c r="B13" s="14">
         <v>19</v>
       </c>
@@ -2539,6 +3909,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=22 C</v>
+      </c>
       <c r="B14" s="14">
         <v>22</v>
       </c>
@@ -2580,6 +3954,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=25 C</v>
+      </c>
       <c r="B15" s="14">
         <v>25</v>
       </c>
@@ -2623,6 +4001,10 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=28 C</v>
+      </c>
       <c r="B16" s="14">
         <v>28</v>
       </c>
@@ -2666,7 +4048,11 @@
       <c r="N16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=31 C</v>
+      </c>
       <c r="B17" s="14">
         <v>31</v>
       </c>
@@ -2709,7 +4095,11 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=34 C</v>
+      </c>
       <c r="B18" s="14">
         <v>34</v>
       </c>
@@ -2752,7 +4142,11 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=37 C</v>
+      </c>
       <c r="B19" s="14">
         <v>37</v>
       </c>
@@ -2795,7 +4189,11 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=40 C</v>
+      </c>
       <c r="B20" s="14">
         <v>40</v>
       </c>
@@ -2838,7 +4236,11 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>T=43 C</v>
+      </c>
       <c r="B21" s="15">
         <v>43</v>
       </c>
@@ -2881,15 +4283,15 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <f>N9</f>
         <v>47.346752451349808</v>
@@ -2908,7 +4310,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
         <v>0</v>
       </c>
@@ -2926,7 +4328,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>
